--- a/渔乐生活/受控文档/软件需求规格说明书/QDF打分表/PRD2018-G06-QFD打分表（总）.xlsx
+++ b/渔乐生活/受控文档/软件需求规格说明书/QDF打分表/PRD2018-G06-QFD打分表（总）.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\软件需求规格说明书\QDF打分表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E9143-7EB1-404F-AF40-9263A9FD418C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4B1F47-2A4E-42ED-A03B-F3C2813F50C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3984" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSData" sheetId="2" r:id="rId1"/>
-    <sheet name="TempData" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="优先级排序" sheetId="3" r:id="rId2"/>
+    <sheet name="TempData" sheetId="1" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9835" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9883" uniqueCount="488">
   <si>
     <t>Work-</t>
   </si>
@@ -1705,6 +1706,14 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端特性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2017,7 +2026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2209,6 +2218,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2495,8 +2552,8 @@
   </sheetPr>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -2838,18 +2895,18 @@
         <v>8</v>
       </c>
       <c r="E24" s="35">
-        <f t="shared" ref="E24:E83" si="0">C24*2+D24</f>
+        <f>C24*2+D24</f>
         <v>22</v>
       </c>
       <c r="F24" s="36">
-        <f t="shared" ref="F24:F83" si="1">E24/437</f>
+        <f>E24/437</f>
         <v>5.0343249427917618E-2</v>
       </c>
       <c r="G24" s="42">
         <v>1</v>
       </c>
       <c r="H24" s="36">
-        <f t="shared" ref="H24:H83" si="2">G24/24</f>
+        <f>G24/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I24" s="43">
@@ -2860,7 +2917,7 @@
         <v>0.05</v>
       </c>
       <c r="K24" s="55">
-        <f t="shared" ref="K24:K83" si="3">F24/(H24+J24)</f>
+        <f>F24/(H24+J24)</f>
         <v>0.54919908466819212</v>
       </c>
     </row>
@@ -2929,18 +2986,18 @@
         <v>6</v>
       </c>
       <c r="E28" s="35">
-        <f t="shared" si="0"/>
+        <f>C28*2+D28</f>
         <v>16</v>
       </c>
       <c r="F28" s="36">
-        <f t="shared" si="1"/>
+        <f>E28/437</f>
         <v>3.6613272311212815E-2</v>
       </c>
       <c r="G28" s="42">
         <v>1</v>
       </c>
       <c r="H28" s="36">
-        <f t="shared" si="2"/>
+        <f>G28/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I28" s="43">
@@ -2951,7 +3008,7 @@
         <v>0.05</v>
       </c>
       <c r="K28" s="55">
-        <f t="shared" si="3"/>
+        <f>F28/(H28+J28)</f>
         <v>0.39941751612232157</v>
       </c>
     </row>
@@ -2986,18 +3043,18 @@
         <v>9</v>
       </c>
       <c r="E30" s="35">
-        <f t="shared" si="0"/>
+        <f>C30*2+D30</f>
         <v>25</v>
       </c>
       <c r="F30" s="36">
-        <f t="shared" si="1"/>
+        <f>E30/437</f>
         <v>5.7208237986270026E-2</v>
       </c>
       <c r="G30" s="42">
         <v>1</v>
       </c>
       <c r="H30" s="36">
-        <f t="shared" si="2"/>
+        <f>G30/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I30" s="43">
@@ -3008,7 +3065,7 @@
         <v>0.05</v>
       </c>
       <c r="K30" s="55">
-        <f t="shared" si="3"/>
+        <f>F30/(H30+J30)</f>
         <v>0.6240898689411275</v>
       </c>
     </row>
@@ -3128,18 +3185,18 @@
         <v>9</v>
       </c>
       <c r="E37" s="35">
-        <f t="shared" si="0"/>
+        <f>C37*2+D37</f>
         <v>27</v>
       </c>
       <c r="F37" s="36">
-        <f t="shared" si="1"/>
+        <f>E37/437</f>
         <v>6.1784897025171627E-2</v>
       </c>
       <c r="G37" s="42">
         <v>2</v>
       </c>
       <c r="H37" s="36">
-        <f t="shared" si="2"/>
+        <f>G37/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I37" s="43">
@@ -3150,7 +3207,7 @@
         <v>0.05</v>
       </c>
       <c r="K37" s="55">
-        <f t="shared" si="3"/>
+        <f>F37/(H37+J37)</f>
         <v>0.46338672768878719</v>
       </c>
     </row>
@@ -3202,18 +3259,18 @@
         <v>8</v>
       </c>
       <c r="E40" s="35">
-        <f t="shared" si="0"/>
+        <f>C40*2+D40</f>
         <v>24</v>
       </c>
       <c r="F40" s="36">
-        <f t="shared" si="1"/>
+        <f>E40/437</f>
         <v>5.4919908466819219E-2</v>
       </c>
       <c r="G40" s="42">
         <v>1</v>
       </c>
       <c r="H40" s="36">
-        <f t="shared" si="2"/>
+        <f>G40/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I40" s="43">
@@ -3224,7 +3281,7 @@
         <v>0.05</v>
       </c>
       <c r="K40" s="55">
-        <f t="shared" si="3"/>
+        <f>F40/(H40+J40)</f>
         <v>0.5991262741834823</v>
       </c>
     </row>
@@ -3276,18 +3333,18 @@
         <v>7</v>
       </c>
       <c r="E43" s="35">
-        <f t="shared" si="0"/>
+        <f>C43*2+D43</f>
         <v>19</v>
       </c>
       <c r="F43" s="36">
-        <f t="shared" si="1"/>
+        <f>E43/437</f>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="G43" s="42">
         <v>2</v>
       </c>
       <c r="H43" s="36">
-        <f t="shared" si="2"/>
+        <f>G43/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I43" s="43">
@@ -3298,7 +3355,7 @@
         <v>0.05</v>
       </c>
       <c r="K43" s="55">
-        <f t="shared" si="3"/>
+        <f>F43/(H43+J43)</f>
         <v>0.32608695652173914</v>
       </c>
     </row>
@@ -3316,18 +3373,18 @@
         <v>7</v>
       </c>
       <c r="E44" s="35">
-        <f t="shared" si="0"/>
+        <f>C44*2+D44</f>
         <v>19</v>
       </c>
       <c r="F44" s="36">
-        <f t="shared" si="1"/>
+        <f>E44/437</f>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="G44" s="42">
         <v>1</v>
       </c>
       <c r="H44" s="36">
-        <f t="shared" si="2"/>
+        <f>G44/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I44" s="43">
@@ -3338,7 +3395,7 @@
         <v>0.05</v>
       </c>
       <c r="K44" s="55">
-        <f t="shared" si="3"/>
+        <f>F44/(H44+J44)</f>
         <v>0.47430830039525684</v>
       </c>
     </row>
@@ -3543,18 +3600,18 @@
         <v>9</v>
       </c>
       <c r="E56" s="35">
-        <f t="shared" si="0"/>
+        <f>C56*2+D56</f>
         <v>25</v>
       </c>
       <c r="F56" s="36">
-        <f t="shared" si="1"/>
+        <f>E56/437</f>
         <v>5.7208237986270026E-2</v>
       </c>
       <c r="G56" s="42">
         <v>2</v>
       </c>
       <c r="H56" s="36">
-        <f t="shared" si="2"/>
+        <f>G56/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I56" s="43">
@@ -3565,7 +3622,7 @@
         <v>0.05</v>
       </c>
       <c r="K56" s="55">
-        <f t="shared" si="3"/>
+        <f>F56/(H56+J56)</f>
         <v>0.42906178489702518</v>
       </c>
     </row>
@@ -3719,18 +3776,18 @@
         <v>8</v>
       </c>
       <c r="E65" s="35">
-        <f t="shared" si="0"/>
+        <f>C65*2+D65</f>
         <v>24</v>
       </c>
       <c r="F65" s="36">
-        <f t="shared" si="1"/>
+        <f>E65/437</f>
         <v>5.4919908466819219E-2</v>
       </c>
       <c r="G65" s="42">
         <v>1</v>
       </c>
       <c r="H65" s="36">
-        <f t="shared" si="2"/>
+        <f>G65/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I65" s="43">
@@ -3741,7 +3798,7 @@
         <v>0.05</v>
       </c>
       <c r="K65" s="55">
-        <f t="shared" si="3"/>
+        <f>F65/(H65+J65)</f>
         <v>0.5991262741834823</v>
       </c>
     </row>
@@ -3759,18 +3816,18 @@
         <v>9</v>
       </c>
       <c r="E66" s="35">
-        <f t="shared" si="0"/>
+        <f>C66*2+D66</f>
         <v>25</v>
       </c>
       <c r="F66" s="36">
-        <f t="shared" si="1"/>
+        <f>E66/437</f>
         <v>5.7208237986270026E-2</v>
       </c>
       <c r="G66" s="42">
         <v>1</v>
       </c>
       <c r="H66" s="36">
-        <f t="shared" si="2"/>
+        <f>G66/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I66" s="43">
@@ -3781,7 +3838,7 @@
         <v>0.05</v>
       </c>
       <c r="K66" s="55">
-        <f t="shared" si="3"/>
+        <f>F66/(H66+J66)</f>
         <v>0.6240898689411275</v>
       </c>
     </row>
@@ -3833,18 +3890,18 @@
         <v>8</v>
       </c>
       <c r="E69" s="35">
-        <f t="shared" si="0"/>
+        <f>C69*2+D69</f>
         <v>22</v>
       </c>
       <c r="F69" s="36">
-        <f t="shared" si="1"/>
+        <f>E69/437</f>
         <v>5.0343249427917618E-2</v>
       </c>
       <c r="G69" s="42">
         <v>2</v>
       </c>
       <c r="H69" s="36">
-        <f t="shared" si="2"/>
+        <f>G69/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I69" s="43">
@@ -3855,7 +3912,7 @@
         <v>0.05</v>
       </c>
       <c r="K69" s="55">
-        <f t="shared" si="3"/>
+        <f>F69/(H69+J69)</f>
         <v>0.37757437070938216</v>
       </c>
     </row>
@@ -3941,18 +3998,18 @@
         <v>7</v>
       </c>
       <c r="E74" s="35">
-        <f t="shared" si="0"/>
+        <f>C74*2+D74</f>
         <v>21</v>
       </c>
       <c r="F74" s="36">
-        <f t="shared" si="1"/>
+        <f>E74/437</f>
         <v>4.8054919908466817E-2</v>
       </c>
       <c r="G74" s="42">
         <v>1</v>
       </c>
       <c r="H74" s="36">
-        <f t="shared" si="2"/>
+        <f>G74/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I74" s="43">
@@ -3963,7 +4020,7 @@
         <v>0.05</v>
       </c>
       <c r="K74" s="55">
-        <f t="shared" si="3"/>
+        <f>F74/(H74+J74)</f>
         <v>0.52423548991054703</v>
       </c>
     </row>
@@ -4032,18 +4089,18 @@
         <v>8</v>
       </c>
       <c r="E78" s="35">
-        <f t="shared" si="0"/>
+        <f>C78*2+D78</f>
         <v>22</v>
       </c>
       <c r="F78" s="36">
-        <f t="shared" si="1"/>
+        <f>E78/437</f>
         <v>5.0343249427917618E-2</v>
       </c>
       <c r="G78" s="42">
         <v>1</v>
       </c>
       <c r="H78" s="36">
-        <f t="shared" si="2"/>
+        <f>G78/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I78" s="43">
@@ -4054,7 +4111,7 @@
         <v>0.05</v>
       </c>
       <c r="K78" s="55">
-        <f t="shared" si="3"/>
+        <f>F78/(H78+J78)</f>
         <v>0.54919908466819212</v>
       </c>
     </row>
@@ -4140,18 +4197,18 @@
         <v>8</v>
       </c>
       <c r="E83" s="35">
-        <f t="shared" si="0"/>
+        <f>C83*2+D83</f>
         <v>24</v>
       </c>
       <c r="F83" s="36">
-        <f t="shared" si="1"/>
+        <f>E83/437</f>
         <v>5.4919908466819219E-2</v>
       </c>
       <c r="G83" s="42">
         <v>1</v>
       </c>
       <c r="H83" s="36">
-        <f t="shared" si="2"/>
+        <f>G83/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I83" s="43">
@@ -4162,7 +4219,7 @@
         <v>0.05</v>
       </c>
       <c r="K83" s="55">
-        <f t="shared" si="3"/>
+        <f>F83/(H83+J83)</f>
         <v>0.5991262741834823</v>
       </c>
     </row>
@@ -4231,18 +4288,18 @@
         <v>7</v>
       </c>
       <c r="E87" s="35">
-        <f t="shared" ref="E87:E107" si="4">C87*2+D87</f>
+        <f>C87*2+D87</f>
         <v>21</v>
       </c>
       <c r="F87" s="36">
-        <f t="shared" ref="F87:F101" si="5">E87/437</f>
+        <f>E87/437</f>
         <v>4.8054919908466817E-2</v>
       </c>
       <c r="G87" s="42">
         <v>1</v>
       </c>
       <c r="H87" s="36">
-        <f t="shared" ref="H87:H101" si="6">G87/24</f>
+        <f>G87/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I87" s="43">
@@ -4253,7 +4310,7 @@
         <v>0.05</v>
       </c>
       <c r="K87" s="55">
-        <f t="shared" ref="K87:K110" si="7">F87/(H87+J87)</f>
+        <f>F87/(H87+J87)</f>
         <v>0.52423548991054703</v>
       </c>
     </row>
@@ -4322,18 +4379,18 @@
         <v>7</v>
       </c>
       <c r="E91" s="35">
-        <f t="shared" si="4"/>
+        <f>C91*2+D91</f>
         <v>19</v>
       </c>
       <c r="F91" s="36">
-        <f t="shared" si="5"/>
+        <f>E91/437</f>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="G91" s="42">
         <v>1</v>
       </c>
       <c r="H91" s="36">
-        <f t="shared" si="6"/>
+        <f>G91/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I91" s="43">
@@ -4344,7 +4401,7 @@
         <v>0.05</v>
       </c>
       <c r="K91" s="55">
-        <f t="shared" si="7"/>
+        <f>F91/(H91+J91)</f>
         <v>0.47430830039525684</v>
       </c>
     </row>
@@ -4413,18 +4470,18 @@
         <v>5</v>
       </c>
       <c r="E95" s="35">
-        <f t="shared" si="4"/>
+        <f>C95*2+D95</f>
         <v>17</v>
       </c>
       <c r="F95" s="36">
-        <f t="shared" si="5"/>
+        <f>E95/437</f>
         <v>3.8901601830663615E-2</v>
       </c>
       <c r="G95" s="42">
         <v>1</v>
       </c>
       <c r="H95" s="36">
-        <f t="shared" si="6"/>
+        <f>G95/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I95" s="43">
@@ -4435,7 +4492,7 @@
         <v>0.05</v>
       </c>
       <c r="K95" s="55">
-        <f t="shared" si="7"/>
+        <f>F95/(H95+J95)</f>
         <v>0.42438111087996666</v>
       </c>
     </row>
@@ -4487,18 +4544,18 @@
         <v>7</v>
       </c>
       <c r="E98" s="35">
-        <f t="shared" si="4"/>
+        <f>C98*2+D98</f>
         <v>21</v>
       </c>
       <c r="F98" s="36">
-        <f t="shared" si="5"/>
+        <f>E98/437</f>
         <v>4.8054919908466817E-2</v>
       </c>
       <c r="G98" s="42">
         <v>1</v>
       </c>
       <c r="H98" s="36">
-        <f t="shared" si="6"/>
+        <f>G98/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I98" s="43">
@@ -4509,7 +4566,7 @@
         <v>0.05</v>
       </c>
       <c r="K98" s="55">
-        <f t="shared" si="7"/>
+        <f>F98/(H98+J98)</f>
         <v>0.52423548991054703</v>
       </c>
     </row>
@@ -4561,18 +4618,18 @@
         <v>7</v>
       </c>
       <c r="E101" s="35">
-        <f t="shared" si="4"/>
+        <f>C101*2+D101</f>
         <v>19</v>
       </c>
       <c r="F101" s="36">
-        <f t="shared" si="5"/>
+        <f>E101/437</f>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="G101" s="42">
         <v>1</v>
       </c>
       <c r="H101" s="36">
-        <f t="shared" si="6"/>
+        <f>G101/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I101" s="43">
@@ -4583,7 +4640,7 @@
         <v>0.05</v>
       </c>
       <c r="K101" s="55">
-        <f t="shared" si="7"/>
+        <f>F101/(H101+J101)</f>
         <v>0.47430830039525684</v>
       </c>
     </row>
@@ -4693,7 +4750,7 @@
         <v>9</v>
       </c>
       <c r="E107" s="35">
-        <f t="shared" si="4"/>
+        <f>C107*2+D107</f>
         <v>27</v>
       </c>
       <c r="F107" s="36">
@@ -4715,7 +4772,7 @@
         <v>0.125</v>
       </c>
       <c r="K107" s="55">
-        <f t="shared" si="7"/>
+        <f>F107/(H107+J107)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -4767,18 +4824,18 @@
         <v>9</v>
       </c>
       <c r="E110" s="35">
-        <f t="shared" ref="E110:E121" si="8">C110*2+D110</f>
+        <f>C110*2+D110</f>
         <v>27</v>
       </c>
       <c r="F110" s="36">
-        <f t="shared" ref="F110:F122" si="9">E110/180</f>
+        <f>E110/180</f>
         <v>0.15</v>
       </c>
       <c r="G110" s="43">
         <v>2</v>
       </c>
       <c r="H110" s="36">
-        <f t="shared" ref="H110:H122" si="10">G110/10</f>
+        <f>G110/10</f>
         <v>0.2</v>
       </c>
       <c r="I110" s="43">
@@ -4789,7 +4846,7 @@
         <v>0.125</v>
       </c>
       <c r="K110" s="55">
-        <f t="shared" si="7"/>
+        <f>F110/(H110+J110)</f>
         <v>0.46153846153846151</v>
       </c>
     </row>
@@ -4841,18 +4898,18 @@
         <v>9</v>
       </c>
       <c r="E113" s="35">
-        <f t="shared" si="8"/>
+        <f>C113*2+D113</f>
         <v>27</v>
       </c>
       <c r="F113" s="36">
-        <f t="shared" si="9"/>
+        <f>E113/180</f>
         <v>0.15</v>
       </c>
       <c r="G113" s="43">
         <v>1</v>
       </c>
       <c r="H113" s="36">
-        <f t="shared" si="10"/>
+        <f>G113/10</f>
         <v>0.1</v>
       </c>
       <c r="I113" s="43">
@@ -4863,7 +4920,7 @@
         <v>0.125</v>
       </c>
       <c r="K113" s="55">
-        <f t="shared" ref="K113:K122" si="11">F113/(H113+J113)</f>
+        <f>F113/(H113+J113)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -4915,18 +4972,18 @@
         <v>9</v>
       </c>
       <c r="E116" s="35">
-        <f t="shared" si="8"/>
+        <f>C116*2+D116</f>
         <v>27</v>
       </c>
       <c r="F116" s="36">
-        <f t="shared" si="9"/>
+        <f>E116/180</f>
         <v>0.15</v>
       </c>
       <c r="G116" s="43">
         <v>2</v>
       </c>
       <c r="H116" s="36">
-        <f t="shared" si="10"/>
+        <f>G116/10</f>
         <v>0.2</v>
       </c>
       <c r="I116" s="43">
@@ -4937,7 +4994,7 @@
         <v>0.125</v>
       </c>
       <c r="K116" s="55">
-        <f t="shared" si="11"/>
+        <f>F116/(H116+J116)</f>
         <v>0.46153846153846151</v>
       </c>
     </row>
@@ -4972,18 +5029,18 @@
         <v>7</v>
       </c>
       <c r="E118" s="35">
-        <f t="shared" si="8"/>
+        <f>C118*2+D118</f>
         <v>23</v>
       </c>
       <c r="F118" s="36">
-        <f t="shared" si="9"/>
+        <f>E118/180</f>
         <v>0.12777777777777777</v>
       </c>
       <c r="G118" s="43">
         <v>1</v>
       </c>
       <c r="H118" s="36">
-        <f t="shared" si="10"/>
+        <f>G118/10</f>
         <v>0.1</v>
       </c>
       <c r="I118" s="43">
@@ -4994,7 +5051,7 @@
         <v>0.125</v>
       </c>
       <c r="K118" s="55">
-        <f t="shared" si="11"/>
+        <f>F118/(H118+J118)</f>
         <v>0.5679012345679012</v>
       </c>
     </row>
@@ -5029,18 +5086,18 @@
         <v>9</v>
       </c>
       <c r="E120" s="35">
-        <f t="shared" si="8"/>
+        <f>C120*2+D120</f>
         <v>27</v>
       </c>
       <c r="F120" s="36">
-        <f t="shared" si="9"/>
+        <f>E120/180</f>
         <v>0.15</v>
       </c>
       <c r="G120" s="43">
         <v>1</v>
       </c>
       <c r="H120" s="36">
-        <f t="shared" si="10"/>
+        <f>G120/10</f>
         <v>0.1</v>
       </c>
       <c r="I120" s="43">
@@ -5051,7 +5108,7 @@
         <v>0.125</v>
       </c>
       <c r="K120" s="55">
-        <f t="shared" si="11"/>
+        <f>F120/(H120+J120)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -5069,18 +5126,18 @@
         <v>7</v>
       </c>
       <c r="E121" s="35">
-        <f t="shared" si="8"/>
+        <f>C121*2+D121</f>
         <v>19</v>
       </c>
       <c r="F121" s="36">
-        <f t="shared" si="9"/>
+        <f>E121/180</f>
         <v>0.10555555555555556</v>
       </c>
       <c r="G121" s="43">
         <v>1</v>
       </c>
       <c r="H121" s="36">
-        <f t="shared" si="10"/>
+        <f>G121/10</f>
         <v>0.1</v>
       </c>
       <c r="I121" s="43">
@@ -5091,7 +5148,7 @@
         <v>0.125</v>
       </c>
       <c r="K121" s="55">
-        <f t="shared" si="11"/>
+        <f>F121/(H121+J121)</f>
         <v>0.46913580246913578</v>
       </c>
     </row>
@@ -5113,14 +5170,14 @@
         <v>3</v>
       </c>
       <c r="F122" s="36">
-        <f t="shared" si="9"/>
+        <f>E122/180</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="G122" s="43">
         <v>1</v>
       </c>
       <c r="H122" s="36">
-        <f t="shared" si="10"/>
+        <f>G122/10</f>
         <v>0.1</v>
       </c>
       <c r="I122" s="43">
@@ -5131,7 +5188,7 @@
         <v>0.125</v>
       </c>
       <c r="K122" s="55">
-        <f t="shared" si="11"/>
+        <f>F122/(H122+J122)</f>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
@@ -5169,6 +5226,1129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0773F6B4-6451-4232-8E5B-A74665CB6BD6}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>440</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="32">
+        <v>8</v>
+      </c>
+      <c r="C2" s="32">
+        <v>9</v>
+      </c>
+      <c r="D2" s="35">
+        <f>B2*2+C2</f>
+        <v>25</v>
+      </c>
+      <c r="E2" s="36">
+        <f>D2/437</f>
+        <v>5.7208237986270026E-2</v>
+      </c>
+      <c r="F2" s="35">
+        <v>1</v>
+      </c>
+      <c r="G2" s="36">
+        <f>F2/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H2" s="43">
+        <v>1</v>
+      </c>
+      <c r="I2" s="36">
+        <f>H2/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J2" s="55">
+        <f>E2/(G2+I2)</f>
+        <v>0.6240898689411275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="33">
+        <v>8</v>
+      </c>
+      <c r="C3" s="33">
+        <v>9</v>
+      </c>
+      <c r="D3" s="35">
+        <f>B3*2+C3</f>
+        <v>25</v>
+      </c>
+      <c r="E3" s="36">
+        <f>D3/437</f>
+        <v>5.7208237986270026E-2</v>
+      </c>
+      <c r="F3" s="42">
+        <v>1</v>
+      </c>
+      <c r="G3" s="36">
+        <f>F3/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H3" s="43">
+        <v>1</v>
+      </c>
+      <c r="I3" s="36">
+        <f>H3/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J3" s="55">
+        <f>E3/(G3+I3)</f>
+        <v>0.6240898689411275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="33">
+        <v>8</v>
+      </c>
+      <c r="C4" s="33">
+        <v>9</v>
+      </c>
+      <c r="D4" s="35">
+        <f>B4*2+C4</f>
+        <v>25</v>
+      </c>
+      <c r="E4" s="36">
+        <f>D4/437</f>
+        <v>5.7208237986270026E-2</v>
+      </c>
+      <c r="F4" s="42">
+        <v>1</v>
+      </c>
+      <c r="G4" s="36">
+        <f>F4/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H4" s="43">
+        <v>1</v>
+      </c>
+      <c r="I4" s="36">
+        <f>H4/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J4" s="55">
+        <f>E4/(G4+I4)</f>
+        <v>0.6240898689411275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="33">
+        <v>8</v>
+      </c>
+      <c r="C5" s="33">
+        <v>8</v>
+      </c>
+      <c r="D5" s="35">
+        <f>B5*2+C5</f>
+        <v>24</v>
+      </c>
+      <c r="E5" s="36">
+        <f>D5/437</f>
+        <v>5.4919908466819219E-2</v>
+      </c>
+      <c r="F5" s="42">
+        <v>1</v>
+      </c>
+      <c r="G5" s="36">
+        <f>F5/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H5" s="43">
+        <v>1</v>
+      </c>
+      <c r="I5" s="36">
+        <f>H5/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="55">
+        <f>E5/(G5+I5)</f>
+        <v>0.5991262741834823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="33">
+        <v>8</v>
+      </c>
+      <c r="C6" s="33">
+        <v>8</v>
+      </c>
+      <c r="D6" s="35">
+        <f>B6*2+C6</f>
+        <v>24</v>
+      </c>
+      <c r="E6" s="36">
+        <f>D6/437</f>
+        <v>5.4919908466819219E-2</v>
+      </c>
+      <c r="F6" s="42">
+        <v>1</v>
+      </c>
+      <c r="G6" s="36">
+        <f>F6/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H6" s="43">
+        <v>1</v>
+      </c>
+      <c r="I6" s="36">
+        <f>H6/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="55">
+        <f>E6/(G6+I6)</f>
+        <v>0.5991262741834823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="32">
+        <v>8</v>
+      </c>
+      <c r="C7" s="32">
+        <v>8</v>
+      </c>
+      <c r="D7" s="35">
+        <f>B7*2+C7</f>
+        <v>24</v>
+      </c>
+      <c r="E7" s="36">
+        <f>D7/437</f>
+        <v>5.4919908466819219E-2</v>
+      </c>
+      <c r="F7" s="42">
+        <v>1</v>
+      </c>
+      <c r="G7" s="36">
+        <f>F7/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H7" s="43">
+        <v>1</v>
+      </c>
+      <c r="I7" s="36">
+        <f>H7/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J7" s="55">
+        <f>E7/(G7+I7)</f>
+        <v>0.5991262741834823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="33">
+        <v>7</v>
+      </c>
+      <c r="C8" s="33">
+        <v>8</v>
+      </c>
+      <c r="D8" s="35">
+        <f>B8*2+C8</f>
+        <v>22</v>
+      </c>
+      <c r="E8" s="36">
+        <f>D8/437</f>
+        <v>5.0343249427917618E-2</v>
+      </c>
+      <c r="F8" s="42">
+        <v>1</v>
+      </c>
+      <c r="G8" s="36">
+        <f>F8/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H8" s="43">
+        <v>1</v>
+      </c>
+      <c r="I8" s="36">
+        <f>H8/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="55">
+        <f>E8/(G8+I8)</f>
+        <v>0.54919908466819212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="33">
+        <v>7</v>
+      </c>
+      <c r="C9" s="33">
+        <v>8</v>
+      </c>
+      <c r="D9" s="35">
+        <f>B9*2+C9</f>
+        <v>22</v>
+      </c>
+      <c r="E9" s="36">
+        <f>D9/437</f>
+        <v>5.0343249427917618E-2</v>
+      </c>
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36">
+        <f>F9/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H9" s="43">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36">
+        <f>H9/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="55">
+        <f>E9/(G9+I9)</f>
+        <v>0.54919908466819212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="33">
+        <v>7</v>
+      </c>
+      <c r="C10" s="33">
+        <v>7</v>
+      </c>
+      <c r="D10" s="35">
+        <f>B10*2+C10</f>
+        <v>21</v>
+      </c>
+      <c r="E10" s="36">
+        <f>D10/437</f>
+        <v>4.8054919908466817E-2</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="36">
+        <f>F10/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H10" s="43">
+        <v>1</v>
+      </c>
+      <c r="I10" s="36">
+        <f>H10/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="55">
+        <f>E10/(G10+I10)</f>
+        <v>0.52423548991054703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="33">
+        <v>7</v>
+      </c>
+      <c r="C11" s="33">
+        <v>7</v>
+      </c>
+      <c r="D11" s="35">
+        <f>B11*2+C11</f>
+        <v>21</v>
+      </c>
+      <c r="E11" s="36">
+        <f>D11/437</f>
+        <v>4.8054919908466817E-2</v>
+      </c>
+      <c r="F11" s="42">
+        <v>1</v>
+      </c>
+      <c r="G11" s="36">
+        <f>F11/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H11" s="43">
+        <v>1</v>
+      </c>
+      <c r="I11" s="36">
+        <f>H11/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J11" s="55">
+        <f>E11/(G11+I11)</f>
+        <v>0.52423548991054703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="B12" s="32">
+        <v>7</v>
+      </c>
+      <c r="C12" s="32">
+        <v>7</v>
+      </c>
+      <c r="D12" s="35">
+        <f>B12*2+C12</f>
+        <v>21</v>
+      </c>
+      <c r="E12" s="36">
+        <f>D12/437</f>
+        <v>4.8054919908466817E-2</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36">
+        <f>F12/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H12" s="43">
+        <v>1</v>
+      </c>
+      <c r="I12" s="36">
+        <f>H12/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="55">
+        <f>E12/(G12+I12)</f>
+        <v>0.52423548991054703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="33">
+        <v>6</v>
+      </c>
+      <c r="C13" s="33">
+        <v>7</v>
+      </c>
+      <c r="D13" s="35">
+        <f>B13*2+C13</f>
+        <v>19</v>
+      </c>
+      <c r="E13" s="36">
+        <f>D13/437</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="F13" s="42">
+        <v>1</v>
+      </c>
+      <c r="G13" s="36">
+        <f>F13/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H13" s="43">
+        <v>1</v>
+      </c>
+      <c r="I13" s="36">
+        <f>H13/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="55">
+        <f>E13/(G13+I13)</f>
+        <v>0.47430830039525684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="32">
+        <v>6</v>
+      </c>
+      <c r="C14" s="32">
+        <v>7</v>
+      </c>
+      <c r="D14" s="35">
+        <f>B14*2+C14</f>
+        <v>19</v>
+      </c>
+      <c r="E14" s="36">
+        <f>D14/437</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="F14" s="42">
+        <v>1</v>
+      </c>
+      <c r="G14" s="36">
+        <f>F14/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H14" s="43">
+        <v>1</v>
+      </c>
+      <c r="I14" s="36">
+        <f>H14/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J14" s="55">
+        <f>E14/(G14+I14)</f>
+        <v>0.47430830039525684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="32">
+        <v>6</v>
+      </c>
+      <c r="C15" s="32">
+        <v>7</v>
+      </c>
+      <c r="D15" s="35">
+        <f>B15*2+C15</f>
+        <v>19</v>
+      </c>
+      <c r="E15" s="36">
+        <f>D15/437</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="F15" s="42">
+        <v>1</v>
+      </c>
+      <c r="G15" s="36">
+        <f>F15/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H15" s="43">
+        <v>1</v>
+      </c>
+      <c r="I15" s="36">
+        <f>H15/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J15" s="55">
+        <f>E15/(G15+I15)</f>
+        <v>0.47430830039525684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="32">
+        <v>9</v>
+      </c>
+      <c r="C16" s="32">
+        <v>9</v>
+      </c>
+      <c r="D16" s="35">
+        <f>B16*2+C16</f>
+        <v>27</v>
+      </c>
+      <c r="E16" s="36">
+        <f>D16/437</f>
+        <v>6.1784897025171627E-2</v>
+      </c>
+      <c r="F16" s="42">
+        <v>2</v>
+      </c>
+      <c r="G16" s="36">
+        <f>F16/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H16" s="43">
+        <v>1</v>
+      </c>
+      <c r="I16" s="36">
+        <f>H16/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J16" s="55">
+        <f>E16/(G16+I16)</f>
+        <v>0.46338672768878719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="33">
+        <v>8</v>
+      </c>
+      <c r="C17" s="33">
+        <v>9</v>
+      </c>
+      <c r="D17" s="35">
+        <f>B17*2+C17</f>
+        <v>25</v>
+      </c>
+      <c r="E17" s="36">
+        <f>D17/437</f>
+        <v>5.7208237986270026E-2</v>
+      </c>
+      <c r="F17" s="42">
+        <v>2</v>
+      </c>
+      <c r="G17" s="36">
+        <f>F17/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H17" s="43">
+        <v>1</v>
+      </c>
+      <c r="I17" s="36">
+        <f>H17/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J17" s="55">
+        <f>E17/(G17+I17)</f>
+        <v>0.42906178489702518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="33">
+        <v>6</v>
+      </c>
+      <c r="C18" s="33">
+        <v>5</v>
+      </c>
+      <c r="D18" s="35">
+        <f>B18*2+C18</f>
+        <v>17</v>
+      </c>
+      <c r="E18" s="36">
+        <f>D18/437</f>
+        <v>3.8901601830663615E-2</v>
+      </c>
+      <c r="F18" s="42">
+        <v>1</v>
+      </c>
+      <c r="G18" s="36">
+        <f>F18/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H18" s="43">
+        <v>1</v>
+      </c>
+      <c r="I18" s="36">
+        <f>H18/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J18" s="55">
+        <f>E18/(G18+I18)</f>
+        <v>0.42438111087996666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="32">
+        <v>5</v>
+      </c>
+      <c r="C19" s="32">
+        <v>6</v>
+      </c>
+      <c r="D19" s="35">
+        <f>B19*2+C19</f>
+        <v>16</v>
+      </c>
+      <c r="E19" s="36">
+        <f>D19/437</f>
+        <v>3.6613272311212815E-2</v>
+      </c>
+      <c r="F19" s="42">
+        <v>1</v>
+      </c>
+      <c r="G19" s="36">
+        <f>F19/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H19" s="43">
+        <v>1</v>
+      </c>
+      <c r="I19" s="36">
+        <f>H19/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J19" s="55">
+        <f>E19/(G19+I19)</f>
+        <v>0.39941751612232157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="33">
+        <v>7</v>
+      </c>
+      <c r="C20" s="33">
+        <v>8</v>
+      </c>
+      <c r="D20" s="35">
+        <f>B20*2+C20</f>
+        <v>22</v>
+      </c>
+      <c r="E20" s="36">
+        <f>D20/437</f>
+        <v>5.0343249427917618E-2</v>
+      </c>
+      <c r="F20" s="42">
+        <v>2</v>
+      </c>
+      <c r="G20" s="36">
+        <f>F20/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H20" s="43">
+        <v>1</v>
+      </c>
+      <c r="I20" s="36">
+        <f>H20/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J20" s="55">
+        <f>E20/(G20+I20)</f>
+        <v>0.37757437070938216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="68">
+        <v>6</v>
+      </c>
+      <c r="C21" s="68">
+        <v>7</v>
+      </c>
+      <c r="D21" s="69">
+        <f>B21*2+C21</f>
+        <v>19</v>
+      </c>
+      <c r="E21" s="70">
+        <f>D21/437</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="F21" s="71">
+        <v>2</v>
+      </c>
+      <c r="G21" s="70">
+        <f>F21/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H21" s="72">
+        <v>1</v>
+      </c>
+      <c r="I21" s="70">
+        <f>H21/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="J21" s="73">
+        <f>E21/(G21+I21)</f>
+        <v>0.32608695652173914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="74" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>435</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>436</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>437</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>438</v>
+      </c>
+      <c r="H25" s="75" t="s">
+        <v>439</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>440</v>
+      </c>
+      <c r="J25" s="64" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="67" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" s="34">
+        <v>9</v>
+      </c>
+      <c r="C26" s="34">
+        <v>9</v>
+      </c>
+      <c r="D26" s="35">
+        <f>B26*2+C26</f>
+        <v>27</v>
+      </c>
+      <c r="E26" s="36">
+        <f>D26/180</f>
+        <v>0.15</v>
+      </c>
+      <c r="F26" s="43">
+        <v>1</v>
+      </c>
+      <c r="G26" s="36">
+        <f>F26/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="43">
+        <v>1</v>
+      </c>
+      <c r="I26" s="36">
+        <f>H26/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J26" s="55">
+        <f>E26/(G26+I26)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" s="34">
+        <v>9</v>
+      </c>
+      <c r="C27" s="34">
+        <v>9</v>
+      </c>
+      <c r="D27" s="35">
+        <f>B27*2+C27</f>
+        <v>27</v>
+      </c>
+      <c r="E27" s="36">
+        <f>D27/180</f>
+        <v>0.15</v>
+      </c>
+      <c r="F27" s="43">
+        <v>1</v>
+      </c>
+      <c r="G27" s="36">
+        <f>F27/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="43">
+        <v>1</v>
+      </c>
+      <c r="I27" s="36">
+        <f>H27/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J27" s="55">
+        <f>E27/(G27+I27)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
+        <v>425</v>
+      </c>
+      <c r="B28" s="34">
+        <v>9</v>
+      </c>
+      <c r="C28" s="34">
+        <v>9</v>
+      </c>
+      <c r="D28" s="35">
+        <f>B28*2+C28</f>
+        <v>27</v>
+      </c>
+      <c r="E28" s="36">
+        <f>D28/180</f>
+        <v>0.15</v>
+      </c>
+      <c r="F28" s="43">
+        <v>1</v>
+      </c>
+      <c r="G28" s="36">
+        <f>F28/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="43">
+        <v>1</v>
+      </c>
+      <c r="I28" s="36">
+        <f>H28/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J28" s="55">
+        <f>E28/(G28+I28)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="67" t="s">
+        <v>421</v>
+      </c>
+      <c r="B29" s="34">
+        <v>8</v>
+      </c>
+      <c r="C29" s="34">
+        <v>7</v>
+      </c>
+      <c r="D29" s="35">
+        <f>B29*2+C29</f>
+        <v>23</v>
+      </c>
+      <c r="E29" s="36">
+        <f>D29/180</f>
+        <v>0.12777777777777777</v>
+      </c>
+      <c r="F29" s="43">
+        <v>1</v>
+      </c>
+      <c r="G29" s="36">
+        <f>F29/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="43">
+        <v>1</v>
+      </c>
+      <c r="I29" s="36">
+        <f>H29/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J29" s="55">
+        <f>E29/(G29+I29)</f>
+        <v>0.5679012345679012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="B30" s="34">
+        <v>6</v>
+      </c>
+      <c r="C30" s="34">
+        <v>7</v>
+      </c>
+      <c r="D30" s="35">
+        <f>B30*2+C30</f>
+        <v>19</v>
+      </c>
+      <c r="E30" s="36">
+        <f>D30/180</f>
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="F30" s="43">
+        <v>1</v>
+      </c>
+      <c r="G30" s="36">
+        <f>F30/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="43">
+        <v>1</v>
+      </c>
+      <c r="I30" s="36">
+        <f>H30/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J30" s="55">
+        <f>E30/(G30+I30)</f>
+        <v>0.46913580246913578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="B31" s="34">
+        <v>9</v>
+      </c>
+      <c r="C31" s="34">
+        <v>9</v>
+      </c>
+      <c r="D31" s="35">
+        <f>B31*2+C31</f>
+        <v>27</v>
+      </c>
+      <c r="E31" s="36">
+        <f>D31/180</f>
+        <v>0.15</v>
+      </c>
+      <c r="F31" s="43">
+        <v>2</v>
+      </c>
+      <c r="G31" s="36">
+        <f>F31/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="43">
+        <v>1</v>
+      </c>
+      <c r="I31" s="36">
+        <f>H31/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J31" s="55">
+        <f>E31/(G31+I31)</f>
+        <v>0.46153846153846151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="B32" s="34">
+        <v>9</v>
+      </c>
+      <c r="C32" s="34">
+        <v>9</v>
+      </c>
+      <c r="D32" s="35">
+        <f>B32*2+C32</f>
+        <v>27</v>
+      </c>
+      <c r="E32" s="36">
+        <f>D32/180</f>
+        <v>0.15</v>
+      </c>
+      <c r="F32" s="43">
+        <v>2</v>
+      </c>
+      <c r="G32" s="36">
+        <f>F32/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="43">
+        <v>1</v>
+      </c>
+      <c r="I32" s="36">
+        <f>H32/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J32" s="55">
+        <f>E32/(G32+I32)</f>
+        <v>0.46153846153846151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="B33" s="78">
+        <v>1</v>
+      </c>
+      <c r="C33" s="78">
+        <v>1</v>
+      </c>
+      <c r="D33" s="69">
+        <f>B33*2+C33</f>
+        <v>3</v>
+      </c>
+      <c r="E33" s="70">
+        <f>D33/180</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F33" s="72">
+        <v>1</v>
+      </c>
+      <c r="G33" s="70">
+        <f>F33/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="72">
+        <v>1</v>
+      </c>
+      <c r="I33" s="70">
+        <f>H33/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J33" s="73">
+        <f>E33/(G33+I33)</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A26:J33">
+    <sortCondition descending="1" ref="J26:J33"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IE91"/>
   <sheetViews>

--- a/渔乐生活/受控文档/软件需求规格说明书/QDF打分表/PRD2018-G06-QFD打分表（总）.xlsx
+++ b/渔乐生活/受控文档/软件需求规格说明书/QDF打分表/PRD2018-G06-QFD打分表（总）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\软件需求规格说明书\QDF打分表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4B1F47-2A4E-42ED-A03B-F3C2813F50C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F516925-DBD2-4BEC-82DB-3AA46F0F812B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3984" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9883" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9911" uniqueCount="491">
   <si>
     <t>Work-</t>
   </si>
@@ -1364,9 +1364,6 @@
   <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：优先级在0.75以上（含0.75）为高优先级，在0.2-0.75（含0.2）为中优先级，在0.2以下的为低优先级</t>
   </si>
   <si>
     <t>表中数据统一采用1-9的数字进行填写:</t>
@@ -1714,6 +1711,22 @@
   </si>
   <si>
     <t>管理端特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：优先级在0.5以上（含0.5）为高优先级，在0.2-0.5（含0.2）为中优先级，在0.2以下的为低优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2207,18 +2220,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2266,6 +2267,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2553,7 +2566,7 @@
   <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:K123"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -2573,12 +2586,12 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
@@ -2587,7 +2600,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="20"/>
@@ -2596,69 +2609,69 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
       <c r="G7" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
       <c r="G8" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -2667,10 +2680,10 @@
       <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="76" t="s">
         <v>431</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="44">
         <v>2</v>
       </c>
@@ -2690,10 +2703,10 @@
       <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="78" t="s">
         <v>432</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="47" t="s">
         <v>433</v>
       </c>
@@ -2849,10 +2862,10 @@
     </row>
     <row r="22" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
@@ -2866,10 +2879,10 @@
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>464</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
@@ -3108,7 +3121,7 @@
         <v>288</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
@@ -3122,10 +3135,10 @@
     </row>
     <row r="34" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -3156,7 +3169,7 @@
     </row>
     <row r="36" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>289</v>
@@ -3287,10 +3300,10 @@
     </row>
     <row r="41" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>466</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>467</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -3304,10 +3317,10 @@
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>468</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>469</v>
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
@@ -3455,7 +3468,7 @@
         <v>310</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
@@ -3469,10 +3482,10 @@
     </row>
     <row r="49" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
@@ -3486,7 +3499,7 @@
     </row>
     <row r="50" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>309</v>
@@ -3520,10 +3533,10 @@
     </row>
     <row r="52" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>471</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>472</v>
       </c>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
@@ -3537,10 +3550,10 @@
     </row>
     <row r="53" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
@@ -3648,7 +3661,7 @@
         <v>321</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
@@ -3696,7 +3709,7 @@
     </row>
     <row r="61" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>324</v>
@@ -3713,10 +3726,10 @@
     </row>
     <row r="62" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>476</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>477</v>
       </c>
       <c r="C62" s="32"/>
       <c r="D62" s="32"/>
@@ -3730,10 +3743,10 @@
     </row>
     <row r="63" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>479</v>
       </c>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
@@ -3747,10 +3760,10 @@
     </row>
     <row r="64" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>480</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>481</v>
       </c>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
@@ -4427,7 +4440,7 @@
         <v>379</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
@@ -4441,7 +4454,7 @@
     </row>
     <row r="94" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>378</v>
@@ -4680,10 +4693,10 @@
     </row>
     <row r="104" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>483</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>484</v>
       </c>
       <c r="C104" s="32"/>
       <c r="D104" s="32"/>
@@ -4697,7 +4710,7 @@
     </row>
     <row r="105" spans="1:11" s="58" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B105" s="38"/>
       <c r="C105" s="39"/>
@@ -5194,7 +5207,7 @@
     </row>
     <row r="123" spans="1:11" s="59" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B123" s="49"/>
       <c r="C123" s="50"/>
@@ -5227,10 +5240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0773F6B4-6451-4232-8E5B-A74665CB6BD6}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5238,40 +5251,40 @@
     <col min="1" max="1" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>486</v>
-      </c>
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>433</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="71" t="s">
         <v>434</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="71" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="71" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="71" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="71" t="s">
         <v>438</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="71" t="s">
         <v>439</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="60" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>260</v>
       </c>
       <c r="B2" s="32">
@@ -5281,34 +5294,37 @@
         <v>9</v>
       </c>
       <c r="D2" s="35">
-        <f>B2*2+C2</f>
+        <f t="shared" ref="D2:D21" si="0">B2*2+C2</f>
         <v>25</v>
       </c>
       <c r="E2" s="36">
-        <f>D2/437</f>
+        <f t="shared" ref="E2:E21" si="1">D2/437</f>
         <v>5.7208237986270026E-2</v>
       </c>
       <c r="F2" s="35">
         <v>1</v>
       </c>
       <c r="G2" s="36">
-        <f>F2/24</f>
+        <f t="shared" ref="G2:G21" si="2">F2/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H2" s="43">
         <v>1</v>
       </c>
       <c r="I2" s="36">
-        <f>H2/20</f>
+        <f t="shared" ref="I2:I21" si="3">H2/20</f>
         <v>0.05</v>
       </c>
       <c r="J2" s="55">
-        <f>E2/(G2+I2)</f>
+        <f t="shared" ref="J2:J21" si="4">E2/(G2+I2)</f>
         <v>0.6240898689411275</v>
       </c>
+      <c r="K2" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
         <v>281</v>
       </c>
       <c r="B3" s="33">
@@ -5318,34 +5334,37 @@
         <v>9</v>
       </c>
       <c r="D3" s="35">
-        <f>B3*2+C3</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E3" s="36">
-        <f>D3/437</f>
+        <f t="shared" si="1"/>
         <v>5.7208237986270026E-2</v>
       </c>
       <c r="F3" s="42">
         <v>1</v>
       </c>
       <c r="G3" s="36">
-        <f>F3/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H3" s="43">
         <v>1</v>
       </c>
       <c r="I3" s="36">
-        <f>H3/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J3" s="55">
-        <f>E3/(G3+I3)</f>
+        <f t="shared" si="4"/>
         <v>0.6240898689411275</v>
       </c>
+      <c r="K3" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
         <v>328</v>
       </c>
       <c r="B4" s="33">
@@ -5355,34 +5374,37 @@
         <v>9</v>
       </c>
       <c r="D4" s="35">
-        <f>B4*2+C4</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E4" s="36">
-        <f>D4/437</f>
+        <f t="shared" si="1"/>
         <v>5.7208237986270026E-2</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
       </c>
       <c r="G4" s="36">
-        <f>F4/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H4" s="43">
         <v>1</v>
       </c>
       <c r="I4" s="36">
-        <f>H4/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J4" s="55">
-        <f>E4/(G4+I4)</f>
+        <f t="shared" si="4"/>
         <v>0.6240898689411275</v>
       </c>
+      <c r="K4" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
         <v>297</v>
       </c>
       <c r="B5" s="33">
@@ -5392,34 +5414,37 @@
         <v>8</v>
       </c>
       <c r="D5" s="35">
-        <f>B5*2+C5</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E5" s="36">
-        <f>D5/437</f>
+        <f t="shared" si="1"/>
         <v>5.4919908466819219E-2</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
       </c>
       <c r="G5" s="36">
-        <f>F5/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H5" s="43">
         <v>1</v>
       </c>
       <c r="I5" s="36">
-        <f>H5/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J5" s="55">
-        <f>E5/(G5+I5)</f>
+        <f t="shared" si="4"/>
         <v>0.5991262741834823</v>
       </c>
+      <c r="K5" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
         <v>326</v>
       </c>
       <c r="B6" s="33">
@@ -5429,34 +5454,37 @@
         <v>8</v>
       </c>
       <c r="D6" s="35">
-        <f>B6*2+C6</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E6" s="36">
-        <f>D6/437</f>
+        <f t="shared" si="1"/>
         <v>5.4919908466819219E-2</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
       </c>
       <c r="G6" s="36">
-        <f>F6/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H6" s="43">
         <v>1</v>
       </c>
       <c r="I6" s="36">
-        <f>H6/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J6" s="55">
-        <f>E6/(G6+I6)</f>
+        <f t="shared" si="4"/>
         <v>0.5991262741834823</v>
       </c>
+      <c r="K6" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
         <v>360</v>
       </c>
       <c r="B7" s="32">
@@ -5466,34 +5494,37 @@
         <v>8</v>
       </c>
       <c r="D7" s="35">
-        <f>B7*2+C7</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E7" s="36">
-        <f>D7/437</f>
+        <f t="shared" si="1"/>
         <v>5.4919908466819219E-2</v>
       </c>
       <c r="F7" s="42">
         <v>1</v>
       </c>
       <c r="G7" s="36">
-        <f>F7/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H7" s="43">
         <v>1</v>
       </c>
       <c r="I7" s="36">
-        <f>H7/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J7" s="55">
-        <f>E7/(G7+I7)</f>
+        <f t="shared" si="4"/>
         <v>0.5991262741834823</v>
       </c>
+      <c r="K7" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
         <v>269</v>
       </c>
       <c r="B8" s="33">
@@ -5503,34 +5534,37 @@
         <v>8</v>
       </c>
       <c r="D8" s="35">
-        <f>B8*2+C8</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E8" s="36">
-        <f>D8/437</f>
+        <f t="shared" si="1"/>
         <v>5.0343249427917618E-2</v>
       </c>
       <c r="F8" s="42">
         <v>1</v>
       </c>
       <c r="G8" s="36">
-        <f>F8/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H8" s="43">
         <v>1</v>
       </c>
       <c r="I8" s="36">
-        <f>H8/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J8" s="55">
-        <f>E8/(G8+I8)</f>
+        <f t="shared" si="4"/>
         <v>0.54919908466819212</v>
       </c>
+      <c r="K8" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>349</v>
       </c>
       <c r="B9" s="33">
@@ -5540,34 +5574,37 @@
         <v>8</v>
       </c>
       <c r="D9" s="35">
-        <f>B9*2+C9</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E9" s="36">
-        <f>D9/437</f>
+        <f t="shared" si="1"/>
         <v>5.0343249427917618E-2</v>
       </c>
       <c r="F9" s="42">
         <v>1</v>
       </c>
       <c r="G9" s="36">
-        <f>F9/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H9" s="43">
         <v>1</v>
       </c>
       <c r="I9" s="36">
-        <f>H9/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J9" s="55">
-        <f>E9/(G9+I9)</f>
+        <f t="shared" si="4"/>
         <v>0.54919908466819212</v>
       </c>
+      <c r="K9" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
         <v>295</v>
       </c>
       <c r="B10" s="33">
@@ -5577,34 +5614,37 @@
         <v>7</v>
       </c>
       <c r="D10" s="35">
-        <f>B10*2+C10</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E10" s="36">
-        <f>D10/437</f>
+        <f t="shared" si="1"/>
         <v>4.8054919908466817E-2</v>
       </c>
       <c r="F10" s="42">
         <v>1</v>
       </c>
       <c r="G10" s="36">
-        <f>F10/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H10" s="43">
         <v>1</v>
       </c>
       <c r="I10" s="36">
-        <f>H10/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J10" s="55">
-        <f>E10/(G10+I10)</f>
+        <f t="shared" si="4"/>
         <v>0.52423548991054703</v>
       </c>
+      <c r="K10" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
         <v>366</v>
       </c>
       <c r="B11" s="33">
@@ -5614,34 +5654,37 @@
         <v>7</v>
       </c>
       <c r="D11" s="35">
-        <f>B11*2+C11</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E11" s="36">
-        <f>D11/437</f>
+        <f t="shared" si="1"/>
         <v>4.8054919908466817E-2</v>
       </c>
       <c r="F11" s="42">
         <v>1</v>
       </c>
       <c r="G11" s="36">
-        <f>F11/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H11" s="43">
         <v>1</v>
       </c>
       <c r="I11" s="36">
-        <f>H11/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J11" s="55">
-        <f>E11/(G11+I11)</f>
+        <f t="shared" si="4"/>
         <v>0.52423548991054703</v>
       </c>
+      <c r="K11" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
         <v>386</v>
       </c>
       <c r="B12" s="32">
@@ -5651,34 +5694,37 @@
         <v>7</v>
       </c>
       <c r="D12" s="35">
-        <f>B12*2+C12</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E12" s="36">
-        <f>D12/437</f>
+        <f t="shared" si="1"/>
         <v>4.8054919908466817E-2</v>
       </c>
       <c r="F12" s="42">
         <v>1</v>
       </c>
       <c r="G12" s="36">
-        <f>F12/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H12" s="43">
         <v>1</v>
       </c>
       <c r="I12" s="36">
-        <f>H12/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J12" s="55">
-        <f>E12/(G12+I12)</f>
+        <f t="shared" si="4"/>
         <v>0.52423548991054703</v>
       </c>
+      <c r="K12" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
         <v>301</v>
       </c>
       <c r="B13" s="33">
@@ -5688,34 +5734,37 @@
         <v>7</v>
       </c>
       <c r="D13" s="35">
-        <f>B13*2+C13</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E13" s="36">
-        <f>D13/437</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="F13" s="42">
         <v>1</v>
       </c>
       <c r="G13" s="36">
-        <f>F13/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H13" s="43">
         <v>1</v>
       </c>
       <c r="I13" s="36">
-        <f>H13/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J13" s="55">
-        <f>E13/(G13+I13)</f>
+        <f t="shared" si="4"/>
         <v>0.47430830039525684</v>
       </c>
+      <c r="K13" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
         <v>374</v>
       </c>
       <c r="B14" s="32">
@@ -5725,34 +5774,37 @@
         <v>7</v>
       </c>
       <c r="D14" s="35">
-        <f>B14*2+C14</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E14" s="36">
-        <f>D14/437</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="F14" s="42">
         <v>1</v>
       </c>
       <c r="G14" s="36">
-        <f>F14/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H14" s="43">
         <v>1</v>
       </c>
       <c r="I14" s="36">
-        <f>H14/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J14" s="55">
-        <f>E14/(G14+I14)</f>
+        <f t="shared" si="4"/>
         <v>0.47430830039525684</v>
       </c>
+      <c r="K14" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>391</v>
       </c>
       <c r="B15" s="32">
@@ -5762,34 +5814,37 @@
         <v>7</v>
       </c>
       <c r="D15" s="35">
-        <f>B15*2+C15</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E15" s="36">
-        <f>D15/437</f>
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="F15" s="42">
         <v>1</v>
       </c>
       <c r="G15" s="36">
-        <f>F15/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H15" s="43">
         <v>1</v>
       </c>
       <c r="I15" s="36">
-        <f>H15/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J15" s="55">
-        <f>E15/(G15+I15)</f>
+        <f t="shared" si="4"/>
         <v>0.47430830039525684</v>
       </c>
+      <c r="K15" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
         <v>291</v>
       </c>
       <c r="B16" s="32">
@@ -5799,34 +5854,37 @@
         <v>9</v>
       </c>
       <c r="D16" s="35">
-        <f>B16*2+C16</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E16" s="36">
-        <f>D16/437</f>
+        <f t="shared" si="1"/>
         <v>6.1784897025171627E-2</v>
       </c>
       <c r="F16" s="42">
         <v>2</v>
       </c>
       <c r="G16" s="36">
-        <f>F16/24</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H16" s="43">
         <v>1</v>
       </c>
       <c r="I16" s="36">
-        <f>H16/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J16" s="55">
-        <f>E16/(G16+I16)</f>
+        <f t="shared" si="4"/>
         <v>0.46338672768878719</v>
       </c>
+      <c r="K16" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
         <v>291</v>
       </c>
       <c r="B17" s="33">
@@ -5836,34 +5894,37 @@
         <v>9</v>
       </c>
       <c r="D17" s="35">
-        <f>B17*2+C17</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E17" s="36">
-        <f>D17/437</f>
+        <f t="shared" si="1"/>
         <v>5.7208237986270026E-2</v>
       </c>
       <c r="F17" s="42">
         <v>2</v>
       </c>
       <c r="G17" s="36">
-        <f>F17/24</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H17" s="43">
         <v>1</v>
       </c>
       <c r="I17" s="36">
-        <f>H17/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J17" s="55">
-        <f>E17/(G17+I17)</f>
+        <f t="shared" si="4"/>
         <v>0.42906178489702518</v>
       </c>
+      <c r="K17" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
         <v>380</v>
       </c>
       <c r="B18" s="33">
@@ -5873,34 +5934,37 @@
         <v>5</v>
       </c>
       <c r="D18" s="35">
-        <f>B18*2+C18</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E18" s="36">
-        <f>D18/437</f>
+        <f t="shared" si="1"/>
         <v>3.8901601830663615E-2</v>
       </c>
       <c r="F18" s="42">
         <v>1</v>
       </c>
       <c r="G18" s="36">
-        <f>F18/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H18" s="43">
         <v>1</v>
       </c>
       <c r="I18" s="36">
-        <f>H18/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J18" s="55">
-        <f>E18/(G18+I18)</f>
+        <f t="shared" si="4"/>
         <v>0.42438111087996666</v>
       </c>
+      <c r="K18" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
         <v>277</v>
       </c>
       <c r="B19" s="32">
@@ -5910,34 +5974,37 @@
         <v>6</v>
       </c>
       <c r="D19" s="35">
-        <f>B19*2+C19</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E19" s="36">
-        <f>D19/437</f>
+        <f t="shared" si="1"/>
         <v>3.6613272311212815E-2</v>
       </c>
       <c r="F19" s="42">
         <v>1</v>
       </c>
       <c r="G19" s="36">
-        <f>F19/24</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H19" s="43">
         <v>1</v>
       </c>
       <c r="I19" s="36">
-        <f>H19/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J19" s="55">
-        <f>E19/(G19+I19)</f>
+        <f t="shared" si="4"/>
         <v>0.39941751612232157</v>
       </c>
+      <c r="K19" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
         <v>334</v>
       </c>
       <c r="B20" s="33">
@@ -5947,104 +6014,110 @@
         <v>8</v>
       </c>
       <c r="D20" s="35">
-        <f>B20*2+C20</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E20" s="36">
-        <f>D20/437</f>
+        <f t="shared" si="1"/>
         <v>5.0343249427917618E-2</v>
       </c>
       <c r="F20" s="42">
         <v>2</v>
       </c>
       <c r="G20" s="36">
-        <f>F20/24</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H20" s="43">
         <v>1</v>
       </c>
       <c r="I20" s="36">
-        <f>H20/20</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J20" s="55">
-        <f>E20/(G20+I20)</f>
+        <f t="shared" si="4"/>
         <v>0.37757437070938216</v>
       </c>
+      <c r="K20" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="B21" s="68">
+      <c r="B21" s="64">
         <v>6</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="64">
         <v>7</v>
       </c>
-      <c r="D21" s="69">
-        <f>B21*2+C21</f>
+      <c r="D21" s="65">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E21" s="70">
-        <f>D21/437</f>
+      <c r="E21" s="66">
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="67">
         <v>2</v>
       </c>
-      <c r="G21" s="70">
-        <f>F21/24</f>
+      <c r="G21" s="66">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="68">
         <v>1</v>
       </c>
-      <c r="I21" s="70">
-        <f>H21/20</f>
+      <c r="I21" s="66">
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="J21" s="73">
-        <f>E21/(G21+I21)</f>
+      <c r="J21" s="69">
+        <f t="shared" si="4"/>
         <v>0.32608695652173914</v>
       </c>
+      <c r="K21" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="s">
-        <v>487</v>
-      </c>
-      <c r="B25" s="75" t="s">
+    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
+        <v>486</v>
+      </c>
+      <c r="B25" s="71" t="s">
         <v>433</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="71" t="s">
         <v>434</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="71" t="s">
         <v>435</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="71" t="s">
         <v>436</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="71" t="s">
         <v>437</v>
       </c>
-      <c r="G25" s="75" t="s">
+      <c r="G25" s="71" t="s">
         <v>438</v>
       </c>
-      <c r="H25" s="75" t="s">
+      <c r="H25" s="71" t="s">
         <v>439</v>
       </c>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="J25" s="64" t="s">
+      <c r="J25" s="60" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="63" t="s">
         <v>399</v>
       </c>
       <c r="B26" s="34">
@@ -6054,34 +6127,37 @@
         <v>9</v>
       </c>
       <c r="D26" s="35">
-        <f>B26*2+C26</f>
+        <f t="shared" ref="D26:D33" si="5">B26*2+C26</f>
         <v>27</v>
       </c>
       <c r="E26" s="36">
-        <f>D26/180</f>
+        <f t="shared" ref="E26:E33" si="6">D26/180</f>
         <v>0.15</v>
       </c>
       <c r="F26" s="43">
         <v>1</v>
       </c>
       <c r="G26" s="36">
-        <f>F26/10</f>
+        <f t="shared" ref="G26:G33" si="7">F26/10</f>
         <v>0.1</v>
       </c>
       <c r="H26" s="43">
         <v>1</v>
       </c>
       <c r="I26" s="36">
-        <f>H26/8</f>
+        <f t="shared" ref="I26:I33" si="8">H26/8</f>
         <v>0.125</v>
       </c>
       <c r="J26" s="55">
-        <f>E26/(G26+I26)</f>
+        <f t="shared" ref="J26:J33" si="9">E26/(G26+I26)</f>
         <v>0.66666666666666663</v>
       </c>
+      <c r="K26" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="63" t="s">
         <v>411</v>
       </c>
       <c r="B27" s="34">
@@ -6091,34 +6167,37 @@
         <v>9</v>
       </c>
       <c r="D27" s="35">
-        <f>B27*2+C27</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="E27" s="36">
-        <f>D27/180</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="F27" s="43">
         <v>1</v>
       </c>
       <c r="G27" s="36">
-        <f>F27/10</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="H27" s="43">
         <v>1</v>
       </c>
       <c r="I27" s="36">
-        <f>H27/8</f>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="J27" s="55">
-        <f>E27/(G27+I27)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
+      <c r="K27" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
         <v>425</v>
       </c>
       <c r="B28" s="34">
@@ -6128,34 +6207,37 @@
         <v>9</v>
       </c>
       <c r="D28" s="35">
-        <f>B28*2+C28</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="E28" s="36">
-        <f>D28/180</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="F28" s="43">
         <v>1</v>
       </c>
       <c r="G28" s="36">
-        <f>F28/10</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="H28" s="43">
         <v>1</v>
       </c>
       <c r="I28" s="36">
-        <f>H28/8</f>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="J28" s="55">
-        <f>E28/(G28+I28)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
+      <c r="K28" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="s">
         <v>421</v>
       </c>
       <c r="B29" s="34">
@@ -6165,34 +6247,37 @@
         <v>7</v>
       </c>
       <c r="D29" s="35">
-        <f>B29*2+C29</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="E29" s="36">
-        <f>D29/180</f>
+        <f t="shared" si="6"/>
         <v>0.12777777777777777</v>
       </c>
       <c r="F29" s="43">
         <v>1</v>
       </c>
       <c r="G29" s="36">
-        <f>F29/10</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="H29" s="43">
         <v>1</v>
       </c>
       <c r="I29" s="36">
-        <f>H29/8</f>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="J29" s="55">
-        <f>E29/(G29+I29)</f>
+        <f t="shared" si="9"/>
         <v>0.5679012345679012</v>
       </c>
+      <c r="K29" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="72" t="s">
         <v>427</v>
       </c>
       <c r="B30" s="34">
@@ -6202,34 +6287,37 @@
         <v>7</v>
       </c>
       <c r="D30" s="35">
-        <f>B30*2+C30</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="E30" s="36">
-        <f>D30/180</f>
+        <f t="shared" si="6"/>
         <v>0.10555555555555556</v>
       </c>
       <c r="F30" s="43">
         <v>1</v>
       </c>
       <c r="G30" s="36">
-        <f>F30/10</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="H30" s="43">
         <v>1</v>
       </c>
       <c r="I30" s="36">
-        <f>H30/8</f>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="J30" s="55">
-        <f>E30/(G30+I30)</f>
+        <f t="shared" si="9"/>
         <v>0.46913580246913578</v>
       </c>
+      <c r="K30" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="63" t="s">
         <v>405</v>
       </c>
       <c r="B31" s="34">
@@ -6239,34 +6327,37 @@
         <v>9</v>
       </c>
       <c r="D31" s="35">
-        <f>B31*2+C31</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="E31" s="36">
-        <f>D31/180</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="F31" s="43">
         <v>2</v>
       </c>
       <c r="G31" s="36">
-        <f>F31/10</f>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="H31" s="43">
         <v>1</v>
       </c>
       <c r="I31" s="36">
-        <f>H31/8</f>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="J31" s="55">
-        <f>E31/(G31+I31)</f>
+        <f t="shared" si="9"/>
         <v>0.46153846153846151</v>
       </c>
+      <c r="K31" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="63" t="s">
         <v>417</v>
       </c>
       <c r="B32" s="34">
@@ -6276,67 +6367,73 @@
         <v>9</v>
       </c>
       <c r="D32" s="35">
-        <f>B32*2+C32</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="E32" s="36">
-        <f>D32/180</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="F32" s="43">
         <v>2</v>
       </c>
       <c r="G32" s="36">
-        <f>F32/10</f>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="H32" s="43">
         <v>1</v>
       </c>
       <c r="I32" s="36">
-        <f>H32/8</f>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="J32" s="55">
-        <f>E32/(G32+I32)</f>
+        <f t="shared" si="9"/>
         <v>0.46153846153846151</v>
       </c>
+      <c r="K32" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="77" t="s">
+    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="73" t="s">
         <v>429</v>
       </c>
-      <c r="B33" s="78">
+      <c r="B33" s="74">
         <v>1</v>
       </c>
-      <c r="C33" s="78">
+      <c r="C33" s="74">
         <v>1</v>
       </c>
-      <c r="D33" s="69">
-        <f>B33*2+C33</f>
+      <c r="D33" s="65">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E33" s="70">
-        <f>D33/180</f>
+      <c r="E33" s="66">
+        <f t="shared" si="6"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="F33" s="72">
+      <c r="F33" s="68">
         <v>1</v>
       </c>
-      <c r="G33" s="70">
-        <f>F33/10</f>
+      <c r="G33" s="66">
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="H33" s="72">
+      <c r="H33" s="68">
         <v>1</v>
       </c>
-      <c r="I33" s="70">
-        <f>H33/8</f>
+      <c r="I33" s="66">
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
-      <c r="J33" s="73">
-        <f>E33/(G33+I33)</f>
+      <c r="J33" s="69">
+        <f t="shared" si="9"/>
         <v>7.407407407407407E-2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -6345,6 +6442,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/渔乐生活/受控文档/软件需求规格说明书/QDF打分表/PRD2018-G06-QFD打分表（总）.xlsx
+++ b/渔乐生活/受控文档/软件需求规格说明书/QDF打分表/PRD2018-G06-QFD打分表（总）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\软件需求规格说明书\QDF打分表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F516925-DBD2-4BEC-82DB-3AA46F0F812B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7EC6D1-7589-4FEF-9F6F-C23FA27D5444}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3984" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9911" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9909" uniqueCount="492">
   <si>
     <t>Work-</t>
   </si>
@@ -1727,6 +1727,10 @@
   </si>
   <si>
     <t>注：优先级在0.5以上（含0.5）为高优先级，在0.2-0.5（含0.2）为中优先级，在0.2以下的为低优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔具店详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2265,9 +2269,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2279,6 +2280,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2680,10 +2684,10 @@
       <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="B14" s="77"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="44">
         <v>2</v>
       </c>
@@ -2703,10 +2707,10 @@
       <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="77" t="s">
         <v>432</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="47" t="s">
         <v>433</v>
       </c>
@@ -5240,10 +5244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0773F6B4-6451-4232-8E5B-A74665CB6BD6}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5294,29 +5298,29 @@
         <v>9</v>
       </c>
       <c r="D2" s="35">
-        <f t="shared" ref="D2:D21" si="0">B2*2+C2</f>
+        <f t="shared" ref="D2:D20" si="0">B2*2+C2</f>
         <v>25</v>
       </c>
       <c r="E2" s="36">
-        <f t="shared" ref="E2:E21" si="1">D2/437</f>
+        <f t="shared" ref="E2:E20" si="1">D2/437</f>
         <v>5.7208237986270026E-2</v>
       </c>
       <c r="F2" s="35">
         <v>1</v>
       </c>
       <c r="G2" s="36">
-        <f t="shared" ref="G2:G21" si="2">F2/24</f>
+        <f t="shared" ref="G2:G20" si="2">F2/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H2" s="43">
         <v>1</v>
       </c>
       <c r="I2" s="36">
-        <f t="shared" ref="I2:I21" si="3">H2/20</f>
+        <f t="shared" ref="I2:I20" si="3">H2/20</f>
         <v>0.05</v>
       </c>
       <c r="J2" s="55">
-        <f t="shared" ref="J2:J21" si="4">E2/(G2+I2)</f>
+        <f t="shared" ref="J2:J20" si="4">E2/(G2+I2)</f>
         <v>0.6240898689411275</v>
       </c>
       <c r="K2" t="s">
@@ -5724,8 +5728,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
-        <v>301</v>
+      <c r="A13" s="61" t="s">
+        <v>491</v>
       </c>
       <c r="B13" s="33">
         <v>6</v>
@@ -5885,28 +5889,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="B17" s="33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" s="33">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" s="35">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" si="1"/>
-        <v>5.7208237986270026E-2</v>
+        <v>3.8901601830663615E-2</v>
       </c>
       <c r="F17" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="36">
         <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H17" s="43">
         <v>1</v>
@@ -5917,7 +5921,7 @@
       </c>
       <c r="J17" s="55">
         <f t="shared" si="4"/>
-        <v>0.42906178489702518</v>
+        <v>0.42438111087996666</v>
       </c>
       <c r="K17" t="s">
         <v>489</v>
@@ -5925,21 +5929,21 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="B18" s="33">
+        <v>277</v>
+      </c>
+      <c r="B18" s="32">
+        <v>5</v>
+      </c>
+      <c r="C18" s="32">
         <v>6</v>
-      </c>
-      <c r="C18" s="33">
-        <v>5</v>
       </c>
       <c r="D18" s="35">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>3.8901601830663615E-2</v>
+        <v>3.6613272311212815E-2</v>
       </c>
       <c r="F18" s="42">
         <v>1</v>
@@ -5957,36 +5961,36 @@
       </c>
       <c r="J18" s="55">
         <f t="shared" si="4"/>
-        <v>0.42438111087996666</v>
+        <v>0.39941751612232157</v>
       </c>
       <c r="K18" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="B19" s="32">
-        <v>5</v>
-      </c>
-      <c r="C19" s="32">
-        <v>6</v>
+      <c r="A19" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="B19" s="33">
+        <v>7</v>
+      </c>
+      <c r="C19" s="33">
+        <v>8</v>
       </c>
       <c r="D19" s="35">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>3.6613272311212815E-2</v>
+        <v>5.0343249427917618E-2</v>
       </c>
       <c r="F19" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="36">
         <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H19" s="43">
         <v>1</v>
@@ -5997,128 +6001,128 @@
       </c>
       <c r="J19" s="55">
         <f t="shared" si="4"/>
-        <v>0.39941751612232157</v>
+        <v>0.37757437070938216</v>
       </c>
       <c r="K19" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="B20" s="33">
+    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="64">
+        <v>6</v>
+      </c>
+      <c r="C20" s="64">
         <v>7</v>
       </c>
-      <c r="C20" s="33">
-        <v>8</v>
-      </c>
-      <c r="D20" s="35">
+      <c r="D20" s="65">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E20" s="36">
+        <v>19</v>
+      </c>
+      <c r="E20" s="66">
         <f t="shared" si="1"/>
-        <v>5.0343249427917618E-2</v>
-      </c>
-      <c r="F20" s="42">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="F20" s="67">
         <v>2</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="66">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="68">
         <v>1</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="66">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="69">
         <f t="shared" si="4"/>
-        <v>0.37757437070938216</v>
+        <v>0.32608695652173914</v>
       </c>
       <c r="K20" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="B21" s="64">
-        <v>6</v>
-      </c>
-      <c r="C21" s="64">
-        <v>7</v>
-      </c>
-      <c r="D21" s="65">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E21" s="66">
-        <f t="shared" si="1"/>
-        <v>4.3478260869565216E-2</v>
-      </c>
-      <c r="F21" s="67">
-        <v>2</v>
-      </c>
-      <c r="G21" s="66">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H21" s="68">
+    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
+        <v>486</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>436</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>437</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>438</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="I24" s="71" t="s">
+        <v>440</v>
+      </c>
+      <c r="J24" s="60" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" s="34">
+        <v>9</v>
+      </c>
+      <c r="C25" s="34">
+        <v>9</v>
+      </c>
+      <c r="D25" s="35">
+        <f t="shared" ref="D25:D32" si="5">B25*2+C25</f>
+        <v>27</v>
+      </c>
+      <c r="E25" s="36">
+        <f t="shared" ref="E25:E32" si="6">D25/180</f>
+        <v>0.15</v>
+      </c>
+      <c r="F25" s="43">
         <v>1</v>
       </c>
-      <c r="I21" s="66">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="J21" s="69">
-        <f t="shared" si="4"/>
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="K21" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
-        <v>486</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>433</v>
-      </c>
-      <c r="C25" s="71" t="s">
-        <v>434</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>435</v>
-      </c>
-      <c r="E25" s="71" t="s">
-        <v>436</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>437</v>
-      </c>
-      <c r="G25" s="71" t="s">
-        <v>438</v>
-      </c>
-      <c r="H25" s="71" t="s">
-        <v>439</v>
-      </c>
-      <c r="I25" s="71" t="s">
-        <v>440</v>
-      </c>
-      <c r="J25" s="60" t="s">
-        <v>441</v>
+      <c r="G25" s="36">
+        <f t="shared" ref="G25:G32" si="7">F25/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="43">
+        <v>1</v>
+      </c>
+      <c r="I25" s="36">
+        <f t="shared" ref="I25:I32" si="8">H25/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J25" s="55">
+        <f t="shared" ref="J25:J32" si="9">E25/(G25+I25)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K25" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B26" s="34">
         <v>9</v>
@@ -6127,29 +6131,29 @@
         <v>9</v>
       </c>
       <c r="D26" s="35">
-        <f t="shared" ref="D26:D33" si="5">B26*2+C26</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="E26" s="36">
-        <f t="shared" ref="E26:E33" si="6">D26/180</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="F26" s="43">
         <v>1</v>
       </c>
       <c r="G26" s="36">
-        <f t="shared" ref="G26:G33" si="7">F26/10</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="H26" s="43">
         <v>1</v>
       </c>
       <c r="I26" s="36">
-        <f t="shared" ref="I26:I33" si="8">H26/8</f>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="J26" s="55">
-        <f t="shared" ref="J26:J33" si="9">E26/(G26+I26)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K26" t="s">
@@ -6157,8 +6161,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
-        <v>411</v>
+      <c r="A27" s="72" t="s">
+        <v>425</v>
       </c>
       <c r="B27" s="34">
         <v>9</v>
@@ -6197,22 +6201,22 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
-        <v>425</v>
+      <c r="A28" s="63" t="s">
+        <v>421</v>
       </c>
       <c r="B28" s="34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="35">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E28" s="36">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>0.12777777777777777</v>
       </c>
       <c r="F28" s="43">
         <v>1</v>
@@ -6230,29 +6234,29 @@
       </c>
       <c r="J28" s="55">
         <f t="shared" si="9"/>
-        <v>0.66666666666666663</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="K28" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
-        <v>421</v>
+      <c r="A29" s="72" t="s">
+        <v>427</v>
       </c>
       <c r="B29" s="34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" s="34">
         <v>7</v>
       </c>
       <c r="D29" s="35">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E29" s="36">
         <f t="shared" si="6"/>
-        <v>0.12777777777777777</v>
+        <v>0.10555555555555556</v>
       </c>
       <c r="F29" s="43">
         <v>1</v>
@@ -6270,36 +6274,36 @@
       </c>
       <c r="J29" s="55">
         <f t="shared" si="9"/>
-        <v>0.5679012345679012</v>
+        <v>0.46913580246913578</v>
       </c>
       <c r="K29" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
-        <v>427</v>
+      <c r="A30" s="63" t="s">
+        <v>405</v>
       </c>
       <c r="B30" s="34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" s="34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30" s="35">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E30" s="36">
         <f t="shared" si="6"/>
-        <v>0.10555555555555556</v>
+        <v>0.15</v>
       </c>
       <c r="F30" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="36">
         <f t="shared" si="7"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H30" s="43">
         <v>1</v>
@@ -6310,7 +6314,7 @@
       </c>
       <c r="J30" s="55">
         <f t="shared" si="9"/>
-        <v>0.46913580246913578</v>
+        <v>0.46153846153846151</v>
       </c>
       <c r="K30" t="s">
         <v>489</v>
@@ -6318,7 +6322,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B31" s="34">
         <v>9</v>
@@ -6356,89 +6360,49 @@
         <v>489</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
-        <v>417</v>
-      </c>
-      <c r="B32" s="34">
-        <v>9</v>
-      </c>
-      <c r="C32" s="34">
-        <v>9</v>
-      </c>
-      <c r="D32" s="35">
+    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="B32" s="74">
+        <v>1</v>
+      </c>
+      <c r="C32" s="74">
+        <v>1</v>
+      </c>
+      <c r="D32" s="65">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="E32" s="36">
+        <v>3</v>
+      </c>
+      <c r="E32" s="66">
         <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-      <c r="F32" s="43">
-        <v>2</v>
-      </c>
-      <c r="G32" s="36">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F32" s="68">
+        <v>1</v>
+      </c>
+      <c r="G32" s="66">
         <f t="shared" si="7"/>
-        <v>0.2</v>
-      </c>
-      <c r="H32" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="68">
         <v>1</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="66">
         <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
-      <c r="J32" s="55">
-        <f t="shared" si="9"/>
-        <v>0.46153846153846151</v>
-      </c>
-      <c r="K32" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="73" t="s">
-        <v>429</v>
-      </c>
-      <c r="B33" s="74">
-        <v>1</v>
-      </c>
-      <c r="C33" s="74">
-        <v>1</v>
-      </c>
-      <c r="D33" s="65">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="E33" s="66">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F33" s="68">
-        <v>1</v>
-      </c>
-      <c r="G33" s="66">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="H33" s="68">
-        <v>1</v>
-      </c>
-      <c r="I33" s="66">
-        <f t="shared" si="8"/>
-        <v>0.125</v>
-      </c>
-      <c r="J33" s="69">
+      <c r="J32" s="69">
         <f t="shared" si="9"/>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K32" t="s">
         <v>488</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A26:J33">
-    <sortCondition descending="1" ref="J26:J33"/>
+  <sortState ref="A25:J32">
+    <sortCondition descending="1" ref="J25:J32"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
